--- a/va_facility_data_2025-02-20/DuBois VA Clinic - Facility Data.xlsx"; filename*=UTF-8''DuBois%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/DuBois VA Clinic - Facility Data.xlsx"; filename*=UTF-8''DuBois%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rdffb0ff96fe246bbb05ecc21380e118b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2e414aefbdb445a3b76c29380f1dbd63"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R03e546854c8144279fac58698457470a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc289d49f680e4478a51bfd2bf0f7ac6e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3d7d587ac9ae4be893fb9ef042551054"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2631fa4326b34efbbad9d8de29f3fb30"/>
   </x:sheets>
 </x:workbook>
 </file>
